--- a/dataset_01_medusae/deformedShapeHistory_Costello2020_fig9.xlsx
+++ b/dataset_01_medusae/deformedShapeHistory_Costello2020_fig9.xlsx
@@ -3611,8 +3611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataset_01_medusae/deformedShapeHistory_Costello2020_fig9.xlsx
+++ b/dataset_01_medusae/deformedShapeHistory_Costello2020_fig9.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="shape" sheetId="1" r:id="rId1"/>
+    <sheet name="integralQuantities" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>x_l</t>
   </si>
@@ -54,6 +55,21 @@
   </si>
   <si>
     <t>t=1.76 s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>U_swim [mm/s]</t>
+  </si>
+  <si>
+    <t>Total distance [mm]</t>
+  </si>
+  <si>
+    <t>Fineness</t>
+  </si>
+  <si>
+    <t>Bell edge speed [mm/s]</t>
   </si>
 </sst>
 </file>
@@ -136,7 +152,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>shape!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -171,7 +187,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$37</c:f>
+              <c:f>shape!$A$3:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -228,7 +244,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$37</c:f>
+              <c:f>shape!$B$3:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -295,7 +311,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>shape!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -321,7 +337,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$38</c:f>
+              <c:f>shape!$C$3:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -399,7 +415,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$38</c:f>
+              <c:f>shape!$D$3:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -665,7 +681,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>shape!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -691,7 +707,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$37</c:f>
+              <c:f>shape!$F$3:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -748,7 +764,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$37</c:f>
+              <c:f>shape!$G$3:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -815,7 +831,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>shape!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -841,7 +857,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$38</c:f>
+              <c:f>shape!$H$3:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -904,7 +920,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$38</c:f>
+              <c:f>shape!$I$3:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -1157,7 +1173,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>shape!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1183,7 +1199,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$37</c:f>
+              <c:f>shape!$K$3:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1240,7 +1256,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$37</c:f>
+              <c:f>shape!$L$3:$L$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1307,7 +1323,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>shape!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1333,7 +1349,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$38</c:f>
+              <c:f>shape!$M$3:$M$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -1405,7 +1421,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$38</c:f>
+              <c:f>shape!$N$3:$N$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -1666,7 +1682,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>shape!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1692,7 +1708,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$3:$P$37</c:f>
+              <c:f>shape!$P$3:$P$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1746,7 +1762,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$3:$Q$37</c:f>
+              <c:f>shape!$Q$3:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1810,7 +1826,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>shape!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1836,7 +1852,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$R$3:$R$38</c:f>
+              <c:f>shape!$R$3:$R$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -1899,7 +1915,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$3:$S$38</c:f>
+              <c:f>shape!$S$3:$S$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -2151,7 +2167,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>shape!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2177,7 +2193,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$U$3:$U$37</c:f>
+              <c:f>shape!$U$3:$U$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2240,7 +2256,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$3:$V$37</c:f>
+              <c:f>shape!$V$3:$V$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2313,7 +2329,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>shape!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2339,7 +2355,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$W$3:$W$38</c:f>
+              <c:f>shape!$W$3:$W$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -2405,7 +2421,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$3:$X$38</c:f>
+              <c:f>shape!$X$3:$X$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -2661,7 +2677,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>shape!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2687,7 +2703,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Z$3:$Z$37</c:f>
+              <c:f>shape!$Z$3:$Z$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2744,7 +2760,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$3:$AA$37</c:f>
+              <c:f>shape!$AA$3:$AA$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2811,7 +2827,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>shape!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2837,7 +2853,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$3:$AB$38</c:f>
+              <c:f>shape!$AB$3:$AB$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -2912,7 +2928,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AC$3:$AC$38</c:f>
+              <c:f>shape!$AC$3:$AC$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -3149,6 +3165,3144 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>integralQuantities!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>U_swim [mm/s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>integralQuantities!$A$3:$A$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000199E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000293E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.244026633446112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.424543871911298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.98000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.57992294713776</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.77074188484226</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>integralQuantities!$B$3:$B$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>0.56716548206716699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26905382004474598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.126576938189742</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62993041915755998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8863498375541301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.74418692571057</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8415354415433001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1073768173375296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.1198590687414</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.6052279920094</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.762907280056</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.7653350869611</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.4821654867678</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.8207618984333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.9981551852921</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.9638809373277</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.796734520402101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.365393380318</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.987281803693101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.403773774457999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.545790095332199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.479192468270799</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.5547586388097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.7833948279094098</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0826519487613897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.4581241561597498</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8133059525450301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.1149674243638596</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.3995444432316102</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.6090905700276803</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.7800672897355803</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.00770926639417</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3417817465075501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7141349257396499</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1519967056599798</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7385036438702399</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3086805549442599</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.93157929504843595</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56673517845526</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.31720863466085802</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.27658915780655402</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.37456305099314502</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.57976703601049395</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.69100224270785304</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.69821998395457197</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.69789502438706497</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.69833296171361703</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.73155580408814502</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.82622667312884301</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0827171198597301</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.3929721660968899</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6139669845901601</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.8300188041105201</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.83858578137662</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.73979165929615</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5727134432894301</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.30165834117273</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.13241889851458</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.97176051978280498</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.95158298358212701</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.95166235362221097</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.95168623537151098</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.95211214732543603</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.95632600928436695</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.87232276141186504</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.83133352396961802</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66189007450077497</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.80757070081219196</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.436934308617281</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.58208300719351702</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.15410201067879</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.5090481502931099</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.6877336343541698</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.6030974536460096</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10.7391346410725</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14.0458822359414</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.924643776512999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18.390278736349099</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20.263691716184201</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>21.819672930804099</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22.8409946792795</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>23.412405017107801</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>23.801000727103599</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24.038435271561099</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>23.898870644472598</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>23.050140037363199</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22.2387330879777</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21.073568745399001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>19.779696348694301</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>18.430308405458302</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>16.891890148646901</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>15.295456866774</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14.280880997436601</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>13.582250192292401</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>13.1504020833067</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>12.5494180525342</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11.741015014002601</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10.8343534803375</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.9864508696929697</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.4166152037493092</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.9585134703353297</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.5545475400941609</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.0931111071554298</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.49680494482417</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.7944461961172697</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.3692868416728796</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.0515320087164</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.7924212531653696</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.55273527387775</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.1142627280976098</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.8061542411793203</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.4997839251264304</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.0559324661875698</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.7522360127431602</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.3742627995723899</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.8522918281755301</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.3108853811237098</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.79561504619226</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.43109854272786</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.0420807165646899</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.74169190438891497</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.49453590766341898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1FFC-4873-9995-DD131D3DF545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>integralQuantities!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total distance [mm]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>integralQuantities!$D$3:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>1.9229244377434399E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8316253853990497E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11739728282296499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.158342194767083</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.195033241990416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23586754970519699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27261089120894899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30526296747629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34200720605617801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38283613131413702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42367103707967702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46451640873348399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51354460988549</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56748789119323795</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61490135529827605</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.68196317901112202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73840272418332997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.80384143813859399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86519696054268203</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92654949269298004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99199568228271995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0492500716128801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.11468878556815</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1719461651521099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.23738936448806</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.29873890638456</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3600914385348599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4255406183783901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4786893892539601</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5236164573320401</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.55625956283801</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5848204735440701</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6133734102400199</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.64192103092923</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.66638994544795</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6908615179700399</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.71940780965757</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7520449346559599</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.78469252554261</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.81734011642927</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8499921926966101</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.89082560333525</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.92757133704204</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.97250189374955</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0174389293402699</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.0664701207460698</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.1236916172845399</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1776426732521399</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.2348749347042598</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.29129534225221</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.3526329231335499</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.4139779796493701</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.4814620271974599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>integralQuantities!$E$3:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>-1.3156845881383101E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.12974947328126E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5643504658570998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28371633876430702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69378101378867996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2348506917911699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7781935607253501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3260469284773899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8626778737530101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4440190937068902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9806141559370101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.43890344215058</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8859344228422197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2859388782693504</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5718980443736896</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7592434248674396</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8460032464010103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9349214331207101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9679428057311901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0233372572035604</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0563227467685703</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.1676857784411103</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.2566039651607896</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.3455939179714704</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4009524863983396</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.4787200167325798</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5341144682049501</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.5447268789080697</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.7679911879354897</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.2933638276891903</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.9083364320268501</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.4599545293013598</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.0712341702075392</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.7222881735348299</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.2838857444601</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.8255961341748</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.4865937281073</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.1463124901688</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.7277254762136</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.309138462258501</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.8569918300105</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.4047734316716</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.930217837516199</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.429488551931099</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15.880284262145199</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.304942163974999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.662409063128202</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.0042435135144</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.281167328764798</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.511114855014402</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17.678374700796098</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17.789701849423199</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.878602094620099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1FFC-4873-9995-DD131D3DF545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>integralQuantities!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bell edge speed [mm/s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>integralQuantities!$J$3:$J$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>5.70880727404059E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1723924248134197E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.102267886772274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.118717898907799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13516791104332401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15161792317884901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16807102742191901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18453340798762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20236559219543501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.213354942407777</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22574501733767299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.234019497126144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24229397691461499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25056536459554202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25882747595383598</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26709267941967402</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27535479077796698</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28498670577837398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31235062070216002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.34096622075986799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35728327227098899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.37359723167456599</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38991737529323101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.40622824258926399</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.42254529410038599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.43884997718132901</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.45515156815473001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.47145006702058601</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.48774238167135298</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.50404706475229699</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.52445188243694596</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.55713545917989704</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.59801930513025603</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.63890686160966903</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.679815444420382</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.72077473779482304</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.76176000487263396</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.80273166667725004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.84369219689470798</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.88462551656577604</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.925532862533472</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.96643031375702604</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0073228176085101</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0482239793611099</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0891560621891601</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1300658818428999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.17097199096757</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.21191273169675</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2528497618968699</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.29375339733551</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.3346533222451</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.37148836257699</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.40838648190278</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.42893044442693</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4494744069510701</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.47001836947521</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4864591052881</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.50291839374626</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.5111681366743701</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.51943334014021</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.5290776235707899</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5373747788145899</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.54566781124833</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.55396290508709</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5608954102013499</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5691822584199999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.58431297133663</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6062525050657599</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.6390243099439701</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6717103603729599</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.69211517805761</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7084074927083699</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7165211829045399</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.72464724153089</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7327733001572301</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7408993587835799</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.7490408779476501</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.7653270083833199</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.78161932303409</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.80611499899981</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.84290674982608</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.87560599324726</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.90011197623813</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.9287093328613201</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.96550262974136</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.00639389674983</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.0472826900722598</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.0881652991795998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.1290726451472999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.1700319385217401</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2110221529716201</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.2519901042471799</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.2929506344646402</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.3338839541357101</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.37479253694642</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.41568998816998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4565862025505099</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4852129341953799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>integralQuantities!$K$3:$K$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>0.44147122922325299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5999107162870101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8198460381911996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0396329389332601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2594198396753296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.4792067404174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.7914600251633</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.381112461920999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.1249250124058</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.2828697622625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.5196384658854</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.1089940603188</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.698349654752199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.1952388651817</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.414728923599498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.726685366021201</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.946175424439097</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41.319825596584103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.441377477487698</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.1848736031695</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.428605991744</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38.579871996314502</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.916070768892801</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34.974870389459397</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.218602778033897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31.092469630592699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.873870099147599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26.562804183698599</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.066805500241902</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.9406723528007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.999620394529401</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.966547315740701</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.303636615291701</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.7516855756475</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.828505947229701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.421775016475999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.7917617113549</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16.754896316616701</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.3851519394644</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.201703383077898</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.241537201058598</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.9854785902268</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.5814737649888</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.436374814961701</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.2159397049736</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.3297466301575</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.3325938945366</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.3710646597594</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.2985757641775</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.2274499213535801</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.0453644177249508</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.73231450257083</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.3055788210962191</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.5255141430004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.745449464904601</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>15.9653847868088</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17.907772535539099</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20.404958588292899</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>22.254583110695101</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24.5665395531169</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>27.310055261277501</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.577497671739501</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>33.7216515701963</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>36.927449724655702</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40.194842661396997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43.154063791845999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>46.729974850924599</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>49.874623486588398</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>50.479924564710899</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>48.520824593125297</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>46.579772634854002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44.083773951397298</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41.864877577627901</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40.015846739874199</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>38.166815902120497</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>36.317785064366802</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>34.931086146632502</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>32.250154695168</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>29.754156011711199</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>27.7207860905982</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26.113206799389499</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>24.548630066220401</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>22.823481425120399</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>21.021425885179202</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>19.4600797859725</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>18.019088407132902</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>16.504123921090201</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14.8042266670397</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>13.8440604850204</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14.437329554266601</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>15.955262463551801</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16.807437408009001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>17.4376930308567</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17.254244474470202</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>16.331064846052399</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>15.0750062352207</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13.7819610707873</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>12.858336178883199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1FFC-4873-9995-DD131D3DF545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="412811688"/>
+        <c:axId val="412816608"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>integralQuantities!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fineness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>integralQuantities!$G$3:$G$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.11183876527330899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.176080360128615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24783958842443499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27859354340835801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29909618006430699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31549828938906499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.327799871382634</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33190039871382399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.346935665594853</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36060409003215099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36470461736334198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37427251446945098</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.389307781350479</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40570989067523899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42211199999999699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43851410932475599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.45901674598070502</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49182096463022301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54512781993568904</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59433414790996597</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.63533942122186204</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66814363987138004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.70094785852089803</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.73785260450160495</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.77475735048231198</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.81576262379421005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.85676789710610701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.90187369774919302</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95108002572346995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.00028635369774</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0371910996784499</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0740958456591601</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.11510111897105</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.15610639228295</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2085931421221801</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.26764073569131</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3250481183279701</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.37206749839228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4294748810289299</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4882491061093199</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.53745543408359</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.56205859807073</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.58256123472668</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.59622965916398</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.60716439871382</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.61126492604501</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6194659807073899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.62766703536977</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.6358680900321501</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.6440691446945299</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.65227019935691</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6604712540192901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.6686723086816599</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.67687336334404</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6932754726688</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7096775819935599</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.74002148424437</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.79032128617363</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.8408944565916301</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9073229993569101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9516086945337501</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.0008150225080299</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.0549419832797402</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.1033282057877698</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.1525345337620498</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.2017408617363299</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.2468466623794101</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.3001535176848802</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.3452593183279702</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.39446564630224</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.43547091961414</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.4764761929260399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>integralQuantities!$H$3:$H$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>6.8920465125123107E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3629534483434303E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6911677360548695E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10691091981098901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13373485016345699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.162472486716735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17471074230560599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20132352125262201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.232072484290228</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25454194779477202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27612759908961299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30204847842975002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33171315903257398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.371037334994548</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40001154226086999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.422480054918496</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44711570617531099</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46785351896882399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.471827108236544</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45451075960072701</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.432761562636097</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.41057164812526198</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38793816352747101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.36725496104191302</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34532976231287599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.32358056534824597</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.30227493847057202</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28318573575730499</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26764366746931401</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24988374874654001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.22991025840011201</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.20816248770585799</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.185082580480358</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16688194421138</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.15275815918534899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.13818852203976001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.12716801609797301</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.11638769408751599</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7442069258773398E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.0472361354397596E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.10065735810988399</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.12194016466154101</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.15180008583139901</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.17959239037942201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.197331390470012</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.22069132211268</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.24493696765888501</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.27184403372682803</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.29845538640346703</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.32506673908010603</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.35167809175674503</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.37976801138990701</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.40667507745784998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.43210357656927201</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.47793344713994101</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.50454194727582802</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.52694646793591504</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.533789523030896</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.53125836853683805</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.52440428361761504</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.51125920532364</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.492168576339997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.47112452744929401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.45265518184146503</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.43223384259695202</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.41757891448287399</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.408248253682651</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.395809749732979</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.37982553762840798</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.358162202140416</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.33898571168013403</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.31989793523724303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1FFC-4873-9995-DD131D3DF545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="410749528"/>
+        <c:axId val="410744936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="412811688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412816608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="412816608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412811688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="410744936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410749528"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="410749528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="410744936"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3338,6 +6492,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3611,7 +6800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
@@ -5095,4 +8284,2360 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6.0000000000000199E-2</v>
+      </c>
+      <c r="B3">
+        <v>0.56716548206716699</v>
+      </c>
+      <c r="D3">
+        <v>1.9229244377434399E-2</v>
+      </c>
+      <c r="E3">
+        <v>-1.3156845881383101E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.11183876527330899</v>
+      </c>
+      <c r="H3">
+        <v>6.8920465125123107E-2</v>
+      </c>
+      <c r="J3">
+        <v>5.70880727404059E-2</v>
+      </c>
+      <c r="K3">
+        <v>0.44147122922325299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8.0000000000000293E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.26905382004474598</v>
+      </c>
+      <c r="D4">
+        <v>6.8316253853990497E-2</v>
+      </c>
+      <c r="E4">
+        <v>-6.12974947328126E-3</v>
+      </c>
+      <c r="G4">
+        <v>0.176080360128615</v>
+      </c>
+      <c r="H4">
+        <v>7.3629534483434303E-2</v>
+      </c>
+      <c r="J4">
+        <v>8.1723924248134197E-2</v>
+      </c>
+      <c r="K4">
+        <v>2.5999107162870101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>0.126576938189742</v>
+      </c>
+      <c r="D5">
+        <v>0.11739728282296499</v>
+      </c>
+      <c r="E5">
+        <v>4.5643504658570998E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.24783958842443499</v>
+      </c>
+      <c r="H5">
+        <v>8.6911677360548695E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.102267886772274</v>
+      </c>
+      <c r="K5">
+        <v>4.8198460381911996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.12</v>
+      </c>
+      <c r="B6">
+        <v>0.62993041915755998</v>
+      </c>
+      <c r="D6">
+        <v>0.158342194767083</v>
+      </c>
+      <c r="E6">
+        <v>0.28371633876430702</v>
+      </c>
+      <c r="G6">
+        <v>0.27859354340835801</v>
+      </c>
+      <c r="H6">
+        <v>0.10691091981098901</v>
+      </c>
+      <c r="J6">
+        <v>0.118717898907799</v>
+      </c>
+      <c r="K6">
+        <v>7.0396329389332601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.13999999999999899</v>
+      </c>
+      <c r="B7">
+        <v>1.8863498375541301</v>
+      </c>
+      <c r="D7">
+        <v>0.195033241990416</v>
+      </c>
+      <c r="E7">
+        <v>0.69378101378867996</v>
+      </c>
+      <c r="G7">
+        <v>0.29909618006430699</v>
+      </c>
+      <c r="H7">
+        <v>0.13373485016345699</v>
+      </c>
+      <c r="J7">
+        <v>0.13516791104332401</v>
+      </c>
+      <c r="K7">
+        <v>9.2594198396753296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.159999999999999</v>
+      </c>
+      <c r="B8">
+        <v>3.74418692571057</v>
+      </c>
+      <c r="D8">
+        <v>0.23586754970519699</v>
+      </c>
+      <c r="E8">
+        <v>1.2348506917911699</v>
+      </c>
+      <c r="G8">
+        <v>0.31549828938906499</v>
+      </c>
+      <c r="H8">
+        <v>0.162472486716735</v>
+      </c>
+      <c r="J8">
+        <v>0.15161792317884901</v>
+      </c>
+      <c r="K8">
+        <v>11.4792067404174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.18</v>
+      </c>
+      <c r="B9">
+        <v>5.8415354415433001</v>
+      </c>
+      <c r="D9">
+        <v>0.27261089120894899</v>
+      </c>
+      <c r="E9">
+        <v>1.7781935607253501</v>
+      </c>
+      <c r="G9">
+        <v>0.327799871382634</v>
+      </c>
+      <c r="H9">
+        <v>0.17471074230560599</v>
+      </c>
+      <c r="J9">
+        <v>0.16807102742191901</v>
+      </c>
+      <c r="K9">
+        <v>13.7914600251633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="B10">
+        <v>8.1073768173375296</v>
+      </c>
+      <c r="D10">
+        <v>0.30526296747629</v>
+      </c>
+      <c r="E10">
+        <v>2.3260469284773899</v>
+      </c>
+      <c r="G10">
+        <v>0.33190039871382399</v>
+      </c>
+      <c r="H10">
+        <v>0.20132352125262201</v>
+      </c>
+      <c r="J10">
+        <v>0.18453340798762</v>
+      </c>
+      <c r="K10">
+        <v>16.381112461920999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.22</v>
+      </c>
+      <c r="B11">
+        <v>10.1198590687414</v>
+      </c>
+      <c r="D11">
+        <v>0.34200720605617801</v>
+      </c>
+      <c r="E11">
+        <v>2.8626778737530101</v>
+      </c>
+      <c r="G11">
+        <v>0.346935665594853</v>
+      </c>
+      <c r="H11">
+        <v>0.232072484290228</v>
+      </c>
+      <c r="J11">
+        <v>0.20236559219543501</v>
+      </c>
+      <c r="K11">
+        <v>19.1249250124058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.244026633446112</v>
+      </c>
+      <c r="B12">
+        <v>11.6052279920094</v>
+      </c>
+      <c r="D12">
+        <v>0.38283613131413702</v>
+      </c>
+      <c r="E12">
+        <v>3.4440190937068902</v>
+      </c>
+      <c r="G12">
+        <v>0.36060409003215099</v>
+      </c>
+      <c r="H12">
+        <v>0.25454194779477202</v>
+      </c>
+      <c r="J12">
+        <v>0.213354942407777</v>
+      </c>
+      <c r="K12">
+        <v>21.2828697622625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.26</v>
+      </c>
+      <c r="B13">
+        <v>12.762907280056</v>
+      </c>
+      <c r="D13">
+        <v>0.42367103707967702</v>
+      </c>
+      <c r="E13">
+        <v>3.9806141559370101</v>
+      </c>
+      <c r="G13">
+        <v>0.36470461736334198</v>
+      </c>
+      <c r="H13">
+        <v>0.27612759908961299</v>
+      </c>
+      <c r="J13">
+        <v>0.22574501733767299</v>
+      </c>
+      <c r="K13">
+        <v>24.5196384658854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B14">
+        <v>13.7653350869611</v>
+      </c>
+      <c r="D14">
+        <v>0.46451640873348399</v>
+      </c>
+      <c r="E14">
+        <v>4.43890344215058</v>
+      </c>
+      <c r="G14">
+        <v>0.37427251446945098</v>
+      </c>
+      <c r="H14">
+        <v>0.30204847842975002</v>
+      </c>
+      <c r="J14">
+        <v>0.234019497126144</v>
+      </c>
+      <c r="K14">
+        <v>27.1089940603188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.3</v>
+      </c>
+      <c r="B15">
+        <v>14.4821654867678</v>
+      </c>
+      <c r="D15">
+        <v>0.51354460988549</v>
+      </c>
+      <c r="E15">
+        <v>4.8859344228422197</v>
+      </c>
+      <c r="G15">
+        <v>0.389307781350479</v>
+      </c>
+      <c r="H15">
+        <v>0.33171315903257398</v>
+      </c>
+      <c r="J15">
+        <v>0.24229397691461499</v>
+      </c>
+      <c r="K15">
+        <v>29.698349654752199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.31999999999999901</v>
+      </c>
+      <c r="B16">
+        <v>14.8207618984333</v>
+      </c>
+      <c r="D16">
+        <v>0.56748789119323795</v>
+      </c>
+      <c r="E16">
+        <v>5.2859388782693504</v>
+      </c>
+      <c r="G16">
+        <v>0.40570989067523899</v>
+      </c>
+      <c r="H16">
+        <v>0.371037334994548</v>
+      </c>
+      <c r="J16">
+        <v>0.25056536459554202</v>
+      </c>
+      <c r="K16">
+        <v>32.1952388651817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.34</v>
+      </c>
+      <c r="B17">
+        <v>14.9981551852921</v>
+      </c>
+      <c r="D17">
+        <v>0.61490135529827605</v>
+      </c>
+      <c r="E17">
+        <v>5.5718980443736896</v>
+      </c>
+      <c r="G17">
+        <v>0.42211199999999699</v>
+      </c>
+      <c r="H17">
+        <v>0.40001154226086999</v>
+      </c>
+      <c r="J17">
+        <v>0.25882747595383598</v>
+      </c>
+      <c r="K17">
+        <v>34.414728923599498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.36</v>
+      </c>
+      <c r="B18">
+        <v>14.9638809373277</v>
+      </c>
+      <c r="D18">
+        <v>0.68196317901112202</v>
+      </c>
+      <c r="E18">
+        <v>5.7592434248674396</v>
+      </c>
+      <c r="G18">
+        <v>0.43851410932475599</v>
+      </c>
+      <c r="H18">
+        <v>0.422480054918496</v>
+      </c>
+      <c r="J18">
+        <v>0.26709267941967402</v>
+      </c>
+      <c r="K18">
+        <v>36.726685366021201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.38</v>
+      </c>
+      <c r="B19">
+        <v>14.796734520402101</v>
+      </c>
+      <c r="D19">
+        <v>0.73840272418332997</v>
+      </c>
+      <c r="E19">
+        <v>5.8460032464010103</v>
+      </c>
+      <c r="G19">
+        <v>0.45901674598070502</v>
+      </c>
+      <c r="H19">
+        <v>0.44711570617531099</v>
+      </c>
+      <c r="J19">
+        <v>0.27535479077796698</v>
+      </c>
+      <c r="K19">
+        <v>38.946175424439097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.4</v>
+      </c>
+      <c r="B20">
+        <v>14.365393380318</v>
+      </c>
+      <c r="D20">
+        <v>0.80384143813859399</v>
+      </c>
+      <c r="E20">
+        <v>5.9349214331207101</v>
+      </c>
+      <c r="G20">
+        <v>0.49182096463022301</v>
+      </c>
+      <c r="H20">
+        <v>0.46785351896882399</v>
+      </c>
+      <c r="J20">
+        <v>0.28498670577837398</v>
+      </c>
+      <c r="K20">
+        <v>41.319825596584103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.424543871911298</v>
+      </c>
+      <c r="B21">
+        <v>13.987281803693101</v>
+      </c>
+      <c r="D21">
+        <v>0.86519696054268203</v>
+      </c>
+      <c r="E21">
+        <v>5.9679428057311901</v>
+      </c>
+      <c r="G21">
+        <v>0.54512781993568904</v>
+      </c>
+      <c r="H21">
+        <v>0.471827108236544</v>
+      </c>
+      <c r="J21">
+        <v>0.31235062070216002</v>
+      </c>
+      <c r="K21">
+        <v>43.441377477487698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.44</v>
+      </c>
+      <c r="B22">
+        <v>13.403773774457999</v>
+      </c>
+      <c r="D22">
+        <v>0.92654949269298004</v>
+      </c>
+      <c r="E22">
+        <v>6.0233372572035604</v>
+      </c>
+      <c r="G22">
+        <v>0.59433414790996597</v>
+      </c>
+      <c r="H22">
+        <v>0.45451075960072701</v>
+      </c>
+      <c r="J22">
+        <v>0.34096622075986799</v>
+      </c>
+      <c r="K22">
+        <v>42.1848736031695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.46</v>
+      </c>
+      <c r="B23">
+        <v>12.545790095332199</v>
+      </c>
+      <c r="D23">
+        <v>0.99199568228271995</v>
+      </c>
+      <c r="E23">
+        <v>6.0563227467685703</v>
+      </c>
+      <c r="G23">
+        <v>0.63533942122186204</v>
+      </c>
+      <c r="H23">
+        <v>0.432761562636097</v>
+      </c>
+      <c r="J23">
+        <v>0.35728327227098899</v>
+      </c>
+      <c r="K23">
+        <v>40.428605991744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.48</v>
+      </c>
+      <c r="B24">
+        <v>11.479192468270799</v>
+      </c>
+      <c r="D24">
+        <v>1.0492500716128801</v>
+      </c>
+      <c r="E24">
+        <v>6.1676857784411103</v>
+      </c>
+      <c r="G24">
+        <v>0.66814363987138004</v>
+      </c>
+      <c r="H24">
+        <v>0.41057164812526198</v>
+      </c>
+      <c r="J24">
+        <v>0.37359723167456599</v>
+      </c>
+      <c r="K24">
+        <v>38.579871996314502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.5</v>
+      </c>
+      <c r="B25">
+        <v>10.5547586388097</v>
+      </c>
+      <c r="D25">
+        <v>1.11468878556815</v>
+      </c>
+      <c r="E25">
+        <v>6.2566039651607896</v>
+      </c>
+      <c r="G25">
+        <v>0.70094785852089803</v>
+      </c>
+      <c r="H25">
+        <v>0.38793816352747101</v>
+      </c>
+      <c r="J25">
+        <v>0.38991737529323101</v>
+      </c>
+      <c r="K25">
+        <v>36.916070768892801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.52</v>
+      </c>
+      <c r="B26">
+        <v>9.7833948279094098</v>
+      </c>
+      <c r="D26">
+        <v>1.1719461651521099</v>
+      </c>
+      <c r="E26">
+        <v>6.3455939179714704</v>
+      </c>
+      <c r="G26">
+        <v>0.73785260450160495</v>
+      </c>
+      <c r="H26">
+        <v>0.36725496104191302</v>
+      </c>
+      <c r="J26">
+        <v>0.40622824258926399</v>
+      </c>
+      <c r="K26">
+        <v>34.974870389459397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.54</v>
+      </c>
+      <c r="B27">
+        <v>9.0826519487613897</v>
+      </c>
+      <c r="D27">
+        <v>1.23738936448806</v>
+      </c>
+      <c r="E27">
+        <v>6.4009524863983396</v>
+      </c>
+      <c r="G27">
+        <v>0.77475735048231198</v>
+      </c>
+      <c r="H27">
+        <v>0.34532976231287599</v>
+      </c>
+      <c r="J27">
+        <v>0.42254529410038599</v>
+      </c>
+      <c r="K27">
+        <v>33.218602778033897</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B28">
+        <v>8.4581241561597498</v>
+      </c>
+      <c r="D28">
+        <v>1.29873890638456</v>
+      </c>
+      <c r="E28">
+        <v>6.4787200167325798</v>
+      </c>
+      <c r="G28">
+        <v>0.81576262379421005</v>
+      </c>
+      <c r="H28">
+        <v>0.32358056534824597</v>
+      </c>
+      <c r="J28">
+        <v>0.43884997718132901</v>
+      </c>
+      <c r="K28">
+        <v>31.092469630592699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B29">
+        <v>7.8133059525450301</v>
+      </c>
+      <c r="D29">
+        <v>1.3600914385348599</v>
+      </c>
+      <c r="E29">
+        <v>6.5341144682049501</v>
+      </c>
+      <c r="G29">
+        <v>0.85676789710610701</v>
+      </c>
+      <c r="H29">
+        <v>0.30227493847057202</v>
+      </c>
+      <c r="J29">
+        <v>0.45515156815473001</v>
+      </c>
+      <c r="K29">
+        <v>28.873870099147599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.6</v>
+      </c>
+      <c r="B30">
+        <v>7.1149674243638596</v>
+      </c>
+      <c r="D30">
+        <v>1.4255406183783901</v>
+      </c>
+      <c r="E30">
+        <v>6.5447268789080697</v>
+      </c>
+      <c r="G30">
+        <v>0.90187369774919302</v>
+      </c>
+      <c r="H30">
+        <v>0.28318573575730499</v>
+      </c>
+      <c r="J30">
+        <v>0.47145006702058601</v>
+      </c>
+      <c r="K30">
+        <v>26.562804183698599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.62</v>
+      </c>
+      <c r="B31">
+        <v>6.3995444432316102</v>
+      </c>
+      <c r="D31">
+        <v>1.4786893892539601</v>
+      </c>
+      <c r="E31">
+        <v>6.7679911879354897</v>
+      </c>
+      <c r="G31">
+        <v>0.95108002572346995</v>
+      </c>
+      <c r="H31">
+        <v>0.26764366746931401</v>
+      </c>
+      <c r="J31">
+        <v>0.48774238167135298</v>
+      </c>
+      <c r="K31">
+        <v>24.066805500241902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.64</v>
+      </c>
+      <c r="B32">
+        <v>5.6090905700276803</v>
+      </c>
+      <c r="D32">
+        <v>1.5236164573320401</v>
+      </c>
+      <c r="E32">
+        <v>7.2933638276891903</v>
+      </c>
+      <c r="G32">
+        <v>1.00028635369774</v>
+      </c>
+      <c r="H32">
+        <v>0.24988374874654001</v>
+      </c>
+      <c r="J32">
+        <v>0.50404706475229699</v>
+      </c>
+      <c r="K32">
+        <v>21.9406723528007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.66</v>
+      </c>
+      <c r="B33">
+        <v>4.7800672897355803</v>
+      </c>
+      <c r="D33">
+        <v>1.55625956283801</v>
+      </c>
+      <c r="E33">
+        <v>7.9083364320268501</v>
+      </c>
+      <c r="G33">
+        <v>1.0371910996784499</v>
+      </c>
+      <c r="H33">
+        <v>0.22991025840011201</v>
+      </c>
+      <c r="J33">
+        <v>0.52445188243694596</v>
+      </c>
+      <c r="K33">
+        <v>19.999620394529401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.68</v>
+      </c>
+      <c r="B34">
+        <v>4.00770926639417</v>
+      </c>
+      <c r="D34">
+        <v>1.5848204735440701</v>
+      </c>
+      <c r="E34">
+        <v>8.4599545293013598</v>
+      </c>
+      <c r="G34">
+        <v>1.0740958456591601</v>
+      </c>
+      <c r="H34">
+        <v>0.20816248770585799</v>
+      </c>
+      <c r="J34">
+        <v>0.55713545917989704</v>
+      </c>
+      <c r="K34">
+        <v>17.966547315740701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.7</v>
+      </c>
+      <c r="B35">
+        <v>3.3417817465075501</v>
+      </c>
+      <c r="D35">
+        <v>1.6133734102400199</v>
+      </c>
+      <c r="E35">
+        <v>9.0712341702075392</v>
+      </c>
+      <c r="G35">
+        <v>1.11510111897105</v>
+      </c>
+      <c r="H35">
+        <v>0.185082580480358</v>
+      </c>
+      <c r="J35">
+        <v>0.59801930513025603</v>
+      </c>
+      <c r="K35">
+        <v>16.303636615291701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.72</v>
+      </c>
+      <c r="B36">
+        <v>2.7141349257396499</v>
+      </c>
+      <c r="D36">
+        <v>1.64192103092923</v>
+      </c>
+      <c r="E36">
+        <v>9.7222881735348299</v>
+      </c>
+      <c r="G36">
+        <v>1.15610639228295</v>
+      </c>
+      <c r="H36">
+        <v>0.16688194421138</v>
+      </c>
+      <c r="J36">
+        <v>0.63890686160966903</v>
+      </c>
+      <c r="K36">
+        <v>14.7516855756475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.74</v>
+      </c>
+      <c r="B37">
+        <v>2.1519967056599798</v>
+      </c>
+      <c r="D37">
+        <v>1.66638994544795</v>
+      </c>
+      <c r="E37">
+        <v>10.2838857444601</v>
+      </c>
+      <c r="G37">
+        <v>1.2085931421221801</v>
+      </c>
+      <c r="H37">
+        <v>0.15275815918534899</v>
+      </c>
+      <c r="J37">
+        <v>0.679815444420382</v>
+      </c>
+      <c r="K37">
+        <v>13.828505947229701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.76</v>
+      </c>
+      <c r="B38">
+        <v>1.7385036438702399</v>
+      </c>
+      <c r="D38">
+        <v>1.6908615179700399</v>
+      </c>
+      <c r="E38">
+        <v>10.8255961341748</v>
+      </c>
+      <c r="G38">
+        <v>1.26764073569131</v>
+      </c>
+      <c r="H38">
+        <v>0.13818852203976001</v>
+      </c>
+      <c r="J38">
+        <v>0.72077473779482304</v>
+      </c>
+      <c r="K38">
+        <v>14.421775016475999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.78</v>
+      </c>
+      <c r="B39">
+        <v>1.3086805549442599</v>
+      </c>
+      <c r="D39">
+        <v>1.71940780965757</v>
+      </c>
+      <c r="E39">
+        <v>11.4865937281073</v>
+      </c>
+      <c r="G39">
+        <v>1.3250481183279701</v>
+      </c>
+      <c r="H39">
+        <v>0.12716801609797301</v>
+      </c>
+      <c r="J39">
+        <v>0.76176000487263396</v>
+      </c>
+      <c r="K39">
+        <v>15.7917617113549</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.8</v>
+      </c>
+      <c r="B40">
+        <v>0.93157929504843595</v>
+      </c>
+      <c r="D40">
+        <v>1.7520449346559599</v>
+      </c>
+      <c r="E40">
+        <v>12.1463124901688</v>
+      </c>
+      <c r="G40">
+        <v>1.37206749839228</v>
+      </c>
+      <c r="H40">
+        <v>0.11638769408751599</v>
+      </c>
+      <c r="J40">
+        <v>0.80273166667725004</v>
+      </c>
+      <c r="K40">
+        <v>16.754896316616701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.82</v>
+      </c>
+      <c r="B41">
+        <v>0.56673517845526</v>
+      </c>
+      <c r="D41">
+        <v>1.78469252554261</v>
+      </c>
+      <c r="E41">
+        <v>12.7277254762136</v>
+      </c>
+      <c r="G41">
+        <v>1.4294748810289299</v>
+      </c>
+      <c r="H41">
+        <v>9.7442069258773398E-2</v>
+      </c>
+      <c r="J41">
+        <v>0.84369219689470798</v>
+      </c>
+      <c r="K41">
+        <v>17.3851519394644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.84</v>
+      </c>
+      <c r="B42">
+        <v>0.31720863466085802</v>
+      </c>
+      <c r="D42">
+        <v>1.81734011642927</v>
+      </c>
+      <c r="E42">
+        <v>13.309138462258501</v>
+      </c>
+      <c r="G42">
+        <v>1.4882491061093199</v>
+      </c>
+      <c r="H42">
+        <v>9.0472361354397596E-2</v>
+      </c>
+      <c r="J42">
+        <v>0.88462551656577604</v>
+      </c>
+      <c r="K42">
+        <v>17.201703383077898</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.86</v>
+      </c>
+      <c r="B43">
+        <v>0.27658915780655402</v>
+      </c>
+      <c r="D43">
+        <v>1.8499921926966101</v>
+      </c>
+      <c r="E43">
+        <v>13.8569918300105</v>
+      </c>
+      <c r="G43">
+        <v>1.53745543408359</v>
+      </c>
+      <c r="H43">
+        <v>0.10065735810988399</v>
+      </c>
+      <c r="J43">
+        <v>0.925532862533472</v>
+      </c>
+      <c r="K43">
+        <v>16.241537201058598</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.88</v>
+      </c>
+      <c r="B44">
+        <v>0.37456305099314502</v>
+      </c>
+      <c r="D44">
+        <v>1.89082560333525</v>
+      </c>
+      <c r="E44">
+        <v>14.4047734316716</v>
+      </c>
+      <c r="G44">
+        <v>1.56205859807073</v>
+      </c>
+      <c r="H44">
+        <v>0.12194016466154101</v>
+      </c>
+      <c r="J44">
+        <v>0.96643031375702604</v>
+      </c>
+      <c r="K44">
+        <v>14.9854785902268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.9</v>
+      </c>
+      <c r="B45">
+        <v>0.57976703601049395</v>
+      </c>
+      <c r="D45">
+        <v>1.92757133704204</v>
+      </c>
+      <c r="E45">
+        <v>14.930217837516199</v>
+      </c>
+      <c r="G45">
+        <v>1.58256123472668</v>
+      </c>
+      <c r="H45">
+        <v>0.15180008583139901</v>
+      </c>
+      <c r="J45">
+        <v>1.0073228176085101</v>
+      </c>
+      <c r="K45">
+        <v>13.5814737649888</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.92</v>
+      </c>
+      <c r="B46">
+        <v>0.69100224270785304</v>
+      </c>
+      <c r="D46">
+        <v>1.97250189374955</v>
+      </c>
+      <c r="E46">
+        <v>15.429488551931099</v>
+      </c>
+      <c r="G46">
+        <v>1.59622965916398</v>
+      </c>
+      <c r="H46">
+        <v>0.17959239037942201</v>
+      </c>
+      <c r="J46">
+        <v>1.0482239793611099</v>
+      </c>
+      <c r="K46">
+        <v>12.436374814961701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.94</v>
+      </c>
+      <c r="B47">
+        <v>0.69821998395457197</v>
+      </c>
+      <c r="D47">
+        <v>2.0174389293402699</v>
+      </c>
+      <c r="E47">
+        <v>15.880284262145199</v>
+      </c>
+      <c r="G47">
+        <v>1.60716439871382</v>
+      </c>
+      <c r="H47">
+        <v>0.197331390470012</v>
+      </c>
+      <c r="J47">
+        <v>1.0891560621891601</v>
+      </c>
+      <c r="K47">
+        <v>12.2159397049736</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.96</v>
+      </c>
+      <c r="B48">
+        <v>0.69789502438706497</v>
+      </c>
+      <c r="D48">
+        <v>2.0664701207460698</v>
+      </c>
+      <c r="E48">
+        <v>16.304942163974999</v>
+      </c>
+      <c r="G48">
+        <v>1.61126492604501</v>
+      </c>
+      <c r="H48">
+        <v>0.22069132211268</v>
+      </c>
+      <c r="J48">
+        <v>1.1300658818428999</v>
+      </c>
+      <c r="K48">
+        <v>11.3297466301575</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.98000000000000098</v>
+      </c>
+      <c r="B49">
+        <v>0.69833296171361703</v>
+      </c>
+      <c r="D49">
+        <v>2.1236916172845399</v>
+      </c>
+      <c r="E49">
+        <v>16.662409063128202</v>
+      </c>
+      <c r="G49">
+        <v>1.6194659807073899</v>
+      </c>
+      <c r="H49">
+        <v>0.24493696765888501</v>
+      </c>
+      <c r="J49">
+        <v>1.17097199096757</v>
+      </c>
+      <c r="K49">
+        <v>10.3325938945366</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>0.73155580408814502</v>
+      </c>
+      <c r="D50">
+        <v>2.1776426732521399</v>
+      </c>
+      <c r="E50">
+        <v>17.0042435135144</v>
+      </c>
+      <c r="G50">
+        <v>1.62766703536977</v>
+      </c>
+      <c r="H50">
+        <v>0.27184403372682803</v>
+      </c>
+      <c r="J50">
+        <v>1.21191273169675</v>
+      </c>
+      <c r="K50">
+        <v>10.3710646597594</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.02</v>
+      </c>
+      <c r="B51">
+        <v>0.82622667312884301</v>
+      </c>
+      <c r="D51">
+        <v>2.2348749347042598</v>
+      </c>
+      <c r="E51">
+        <v>17.281167328764798</v>
+      </c>
+      <c r="G51">
+        <v>1.6358680900321501</v>
+      </c>
+      <c r="H51">
+        <v>0.29845538640346703</v>
+      </c>
+      <c r="J51">
+        <v>1.2528497618968699</v>
+      </c>
+      <c r="K51">
+        <v>10.2985757641775</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1.04</v>
+      </c>
+      <c r="B52">
+        <v>1.0827171198597301</v>
+      </c>
+      <c r="D52">
+        <v>2.29129534225221</v>
+      </c>
+      <c r="E52">
+        <v>17.511114855014402</v>
+      </c>
+      <c r="G52">
+        <v>1.6440691446945299</v>
+      </c>
+      <c r="H52">
+        <v>0.32506673908010603</v>
+      </c>
+      <c r="J52">
+        <v>1.29375339733551</v>
+      </c>
+      <c r="K52">
+        <v>9.2274499213535801</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.06</v>
+      </c>
+      <c r="B53">
+        <v>1.3929721660968899</v>
+      </c>
+      <c r="D53">
+        <v>2.3526329231335499</v>
+      </c>
+      <c r="E53">
+        <v>17.678374700796098</v>
+      </c>
+      <c r="G53">
+        <v>1.65227019935691</v>
+      </c>
+      <c r="H53">
+        <v>0.35167809175674503</v>
+      </c>
+      <c r="J53">
+        <v>1.3346533222451</v>
+      </c>
+      <c r="K53">
+        <v>8.0453644177249508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1.08</v>
+      </c>
+      <c r="B54">
+        <v>1.6139669845901601</v>
+      </c>
+      <c r="D54">
+        <v>2.4139779796493701</v>
+      </c>
+      <c r="E54">
+        <v>17.789701849423199</v>
+      </c>
+      <c r="G54">
+        <v>1.6604712540192901</v>
+      </c>
+      <c r="H54">
+        <v>0.37976801138990701</v>
+      </c>
+      <c r="J54">
+        <v>1.37148836257699</v>
+      </c>
+      <c r="K54">
+        <v>7.73231450257083</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B55">
+        <v>1.8300188041105201</v>
+      </c>
+      <c r="D55">
+        <v>2.4814620271974599</v>
+      </c>
+      <c r="E55">
+        <v>17.878602094620099</v>
+      </c>
+      <c r="G55">
+        <v>1.6686723086816599</v>
+      </c>
+      <c r="H55">
+        <v>0.40667507745784998</v>
+      </c>
+      <c r="J55">
+        <v>1.40838648190278</v>
+      </c>
+      <c r="K55">
+        <v>9.3055788210962191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B56">
+        <v>1.83858578137662</v>
+      </c>
+      <c r="G56">
+        <v>1.67687336334404</v>
+      </c>
+      <c r="H56">
+        <v>0.43210357656927201</v>
+      </c>
+      <c r="J56">
+        <v>1.42893044442693</v>
+      </c>
+      <c r="K56">
+        <v>11.5255141430004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B57">
+        <v>1.73979165929615</v>
+      </c>
+      <c r="G57">
+        <v>1.6932754726688</v>
+      </c>
+      <c r="H57">
+        <v>0.47793344713994101</v>
+      </c>
+      <c r="J57">
+        <v>1.4494744069510701</v>
+      </c>
+      <c r="K57">
+        <v>13.745449464904601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="B58">
+        <v>1.5727134432894301</v>
+      </c>
+      <c r="G58">
+        <v>1.7096775819935599</v>
+      </c>
+      <c r="H58">
+        <v>0.50454194727582802</v>
+      </c>
+      <c r="J58">
+        <v>1.47001836947521</v>
+      </c>
+      <c r="K58">
+        <v>15.9653847868088</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1.18</v>
+      </c>
+      <c r="B59">
+        <v>1.30165834117273</v>
+      </c>
+      <c r="G59">
+        <v>1.74002148424437</v>
+      </c>
+      <c r="H59">
+        <v>0.52694646793591504</v>
+      </c>
+      <c r="J59">
+        <v>1.4864591052881</v>
+      </c>
+      <c r="K59">
+        <v>17.907772535539099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1.2</v>
+      </c>
+      <c r="B60">
+        <v>1.13241889851458</v>
+      </c>
+      <c r="G60">
+        <v>1.79032128617363</v>
+      </c>
+      <c r="H60">
+        <v>0.533789523030896</v>
+      </c>
+      <c r="J60">
+        <v>1.50291839374626</v>
+      </c>
+      <c r="K60">
+        <v>20.404958588292899</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1.22</v>
+      </c>
+      <c r="B61">
+        <v>0.97176051978280498</v>
+      </c>
+      <c r="G61">
+        <v>1.8408944565916301</v>
+      </c>
+      <c r="H61">
+        <v>0.53125836853683805</v>
+      </c>
+      <c r="J61">
+        <v>1.5111681366743701</v>
+      </c>
+      <c r="K61">
+        <v>22.254583110695101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1.24</v>
+      </c>
+      <c r="B62">
+        <v>0.95158298358212701</v>
+      </c>
+      <c r="G62">
+        <v>1.9073229993569101</v>
+      </c>
+      <c r="H62">
+        <v>0.52440428361761504</v>
+      </c>
+      <c r="J62">
+        <v>1.51943334014021</v>
+      </c>
+      <c r="K62">
+        <v>24.5665395531169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1.26</v>
+      </c>
+      <c r="B63">
+        <v>0.95166235362221097</v>
+      </c>
+      <c r="G63">
+        <v>1.9516086945337501</v>
+      </c>
+      <c r="H63">
+        <v>0.51125920532364</v>
+      </c>
+      <c r="J63">
+        <v>1.5290776235707899</v>
+      </c>
+      <c r="K63">
+        <v>27.310055261277501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1.28</v>
+      </c>
+      <c r="B64">
+        <v>0.95168623537151098</v>
+      </c>
+      <c r="G64">
+        <v>2.0008150225080299</v>
+      </c>
+      <c r="H64">
+        <v>0.492168576339997</v>
+      </c>
+      <c r="J64">
+        <v>1.5373747788145899</v>
+      </c>
+      <c r="K64">
+        <v>30.577497671739501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1.3</v>
+      </c>
+      <c r="B65">
+        <v>0.95211214732543603</v>
+      </c>
+      <c r="G65">
+        <v>2.0549419832797402</v>
+      </c>
+      <c r="H65">
+        <v>0.47112452744929401</v>
+      </c>
+      <c r="J65">
+        <v>1.54566781124833</v>
+      </c>
+      <c r="K65">
+        <v>33.7216515701963</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1.32</v>
+      </c>
+      <c r="B66">
+        <v>0.95632600928436695</v>
+      </c>
+      <c r="G66">
+        <v>2.1033282057877698</v>
+      </c>
+      <c r="H66">
+        <v>0.45265518184146503</v>
+      </c>
+      <c r="J66">
+        <v>1.55396290508709</v>
+      </c>
+      <c r="K66">
+        <v>36.927449724655702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1.34</v>
+      </c>
+      <c r="B67">
+        <v>0.87232276141186504</v>
+      </c>
+      <c r="G67">
+        <v>2.1525345337620498</v>
+      </c>
+      <c r="H67">
+        <v>0.43223384259695202</v>
+      </c>
+      <c r="J67">
+        <v>1.5608954102013499</v>
+      </c>
+      <c r="K67">
+        <v>40.194842661396997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1.36</v>
+      </c>
+      <c r="B68">
+        <v>0.83133352396961802</v>
+      </c>
+      <c r="G68">
+        <v>2.2017408617363299</v>
+      </c>
+      <c r="H68">
+        <v>0.41757891448287399</v>
+      </c>
+      <c r="J68">
+        <v>1.5691822584199999</v>
+      </c>
+      <c r="K68">
+        <v>43.154063791845999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1.38</v>
+      </c>
+      <c r="B69">
+        <v>0.66189007450077497</v>
+      </c>
+      <c r="G69">
+        <v>2.2468466623794101</v>
+      </c>
+      <c r="H69">
+        <v>0.408248253682651</v>
+      </c>
+      <c r="J69">
+        <v>1.58431297133663</v>
+      </c>
+      <c r="K69">
+        <v>46.729974850924599</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1.4</v>
+      </c>
+      <c r="B70">
+        <v>0.80757070081219196</v>
+      </c>
+      <c r="G70">
+        <v>2.3001535176848802</v>
+      </c>
+      <c r="H70">
+        <v>0.395809749732979</v>
+      </c>
+      <c r="J70">
+        <v>1.6062525050657599</v>
+      </c>
+      <c r="K70">
+        <v>49.874623486588398</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1.42</v>
+      </c>
+      <c r="B71">
+        <v>0.436934308617281</v>
+      </c>
+      <c r="G71">
+        <v>2.3452593183279702</v>
+      </c>
+      <c r="H71">
+        <v>0.37982553762840798</v>
+      </c>
+      <c r="J71">
+        <v>1.6390243099439701</v>
+      </c>
+      <c r="K71">
+        <v>50.479924564710899</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1.44</v>
+      </c>
+      <c r="B72">
+        <v>0.58208300719351702</v>
+      </c>
+      <c r="G72">
+        <v>2.39446564630224</v>
+      </c>
+      <c r="H72">
+        <v>0.358162202140416</v>
+      </c>
+      <c r="J72">
+        <v>1.6717103603729599</v>
+      </c>
+      <c r="K72">
+        <v>48.520824593125297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1.46</v>
+      </c>
+      <c r="B73">
+        <v>1.15410201067879</v>
+      </c>
+      <c r="G73">
+        <v>2.43547091961414</v>
+      </c>
+      <c r="H73">
+        <v>0.33898571168013403</v>
+      </c>
+      <c r="J73">
+        <v>1.69211517805761</v>
+      </c>
+      <c r="K73">
+        <v>46.579772634854002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1.48</v>
+      </c>
+      <c r="B74">
+        <v>2.5090481502931099</v>
+      </c>
+      <c r="G74">
+        <v>2.4764761929260399</v>
+      </c>
+      <c r="H74">
+        <v>0.31989793523724303</v>
+      </c>
+      <c r="J74">
+        <v>1.7084074927083699</v>
+      </c>
+      <c r="K74">
+        <v>44.083773951397298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1.5</v>
+      </c>
+      <c r="B75">
+        <v>4.6877336343541698</v>
+      </c>
+      <c r="J75">
+        <v>1.7165211829045399</v>
+      </c>
+      <c r="K75">
+        <v>41.864877577627901</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1.52</v>
+      </c>
+      <c r="B76">
+        <v>7.6030974536460096</v>
+      </c>
+      <c r="J76">
+        <v>1.72464724153089</v>
+      </c>
+      <c r="K76">
+        <v>40.015846739874199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1.54</v>
+      </c>
+      <c r="B77">
+        <v>10.7391346410725</v>
+      </c>
+      <c r="J77">
+        <v>1.7327733001572301</v>
+      </c>
+      <c r="K77">
+        <v>38.166815902120497</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1.56</v>
+      </c>
+      <c r="B78">
+        <v>14.0458822359414</v>
+      </c>
+      <c r="J78">
+        <v>1.7408993587835799</v>
+      </c>
+      <c r="K78">
+        <v>36.317785064366802</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1.57992294713776</v>
+      </c>
+      <c r="B79">
+        <v>15.924643776512999</v>
+      </c>
+      <c r="J79">
+        <v>1.7490408779476501</v>
+      </c>
+      <c r="K79">
+        <v>34.931086146632502</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1.6</v>
+      </c>
+      <c r="B80">
+        <v>18.390278736349099</v>
+      </c>
+      <c r="J80">
+        <v>1.7653270083833199</v>
+      </c>
+      <c r="K80">
+        <v>32.250154695168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1.62</v>
+      </c>
+      <c r="B81">
+        <v>20.263691716184201</v>
+      </c>
+      <c r="J81">
+        <v>1.78161932303409</v>
+      </c>
+      <c r="K81">
+        <v>29.754156011711199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1.64</v>
+      </c>
+      <c r="B82">
+        <v>21.819672930804099</v>
+      </c>
+      <c r="J82">
+        <v>1.80611499899981</v>
+      </c>
+      <c r="K82">
+        <v>27.7207860905982</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1.66</v>
+      </c>
+      <c r="B83">
+        <v>22.8409946792795</v>
+      </c>
+      <c r="J83">
+        <v>1.84290674982608</v>
+      </c>
+      <c r="K83">
+        <v>26.113206799389499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1.68</v>
+      </c>
+      <c r="B84">
+        <v>23.412405017107801</v>
+      </c>
+      <c r="J84">
+        <v>1.87560599324726</v>
+      </c>
+      <c r="K84">
+        <v>24.548630066220401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1.7</v>
+      </c>
+      <c r="B85">
+        <v>23.801000727103599</v>
+      </c>
+      <c r="J85">
+        <v>1.90011197623813</v>
+      </c>
+      <c r="K85">
+        <v>22.823481425120399</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1.72</v>
+      </c>
+      <c r="B86">
+        <v>24.038435271561099</v>
+      </c>
+      <c r="J86">
+        <v>1.9287093328613201</v>
+      </c>
+      <c r="K86">
+        <v>21.021425885179202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1.74</v>
+      </c>
+      <c r="B87">
+        <v>23.898870644472598</v>
+      </c>
+      <c r="J87">
+        <v>1.96550262974136</v>
+      </c>
+      <c r="K87">
+        <v>19.4600797859725</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1.77074188484226</v>
+      </c>
+      <c r="B88">
+        <v>23.050140037363199</v>
+      </c>
+      <c r="J88">
+        <v>2.00639389674983</v>
+      </c>
+      <c r="K88">
+        <v>18.019088407132902</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1.78</v>
+      </c>
+      <c r="B89">
+        <v>22.2387330879777</v>
+      </c>
+      <c r="J89">
+        <v>2.0472826900722598</v>
+      </c>
+      <c r="K89">
+        <v>16.504123921090201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1.8</v>
+      </c>
+      <c r="B90">
+        <v>21.073568745399001</v>
+      </c>
+      <c r="J90">
+        <v>2.0881652991795998</v>
+      </c>
+      <c r="K90">
+        <v>14.8042266670397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1.82</v>
+      </c>
+      <c r="B91">
+        <v>19.779696348694301</v>
+      </c>
+      <c r="J91">
+        <v>2.1290726451472999</v>
+      </c>
+      <c r="K91">
+        <v>13.8440604850204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1.84</v>
+      </c>
+      <c r="B92">
+        <v>18.430308405458302</v>
+      </c>
+      <c r="J92">
+        <v>2.1700319385217401</v>
+      </c>
+      <c r="K92">
+        <v>14.437329554266601</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1.86</v>
+      </c>
+      <c r="B93">
+        <v>16.891890148646901</v>
+      </c>
+      <c r="J93">
+        <v>2.2110221529716201</v>
+      </c>
+      <c r="K93">
+        <v>15.955262463551801</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1.88</v>
+      </c>
+      <c r="B94">
+        <v>15.295456866774</v>
+      </c>
+      <c r="J94">
+        <v>2.2519901042471799</v>
+      </c>
+      <c r="K94">
+        <v>16.807437408009001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1.9</v>
+      </c>
+      <c r="B95">
+        <v>14.280880997436601</v>
+      </c>
+      <c r="J95">
+        <v>2.2929506344646402</v>
+      </c>
+      <c r="K95">
+        <v>17.4376930308567</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1.92</v>
+      </c>
+      <c r="B96">
+        <v>13.582250192292401</v>
+      </c>
+      <c r="J96">
+        <v>2.3338839541357101</v>
+      </c>
+      <c r="K96">
+        <v>17.254244474470202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1.94</v>
+      </c>
+      <c r="B97">
+        <v>13.1504020833067</v>
+      </c>
+      <c r="J97">
+        <v>2.37479253694642</v>
+      </c>
+      <c r="K97">
+        <v>16.331064846052399</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1.96</v>
+      </c>
+      <c r="B98">
+        <v>12.5494180525342</v>
+      </c>
+      <c r="J98">
+        <v>2.41568998816998</v>
+      </c>
+      <c r="K98">
+        <v>15.0750062352207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1.98</v>
+      </c>
+      <c r="B99">
+        <v>11.741015014002601</v>
+      </c>
+      <c r="J99">
+        <v>2.4565862025505099</v>
+      </c>
+      <c r="K99">
+        <v>13.7819610707873</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>10.8343534803375</v>
+      </c>
+      <c r="J100">
+        <v>2.4852129341953799</v>
+      </c>
+      <c r="K100">
+        <v>12.858336178883199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2.02</v>
+      </c>
+      <c r="B101">
+        <v>9.9864508696929697</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2.04</v>
+      </c>
+      <c r="B102">
+        <v>9.4166152037493092</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2.06</v>
+      </c>
+      <c r="B103">
+        <v>8.9585134703353297</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2.08</v>
+      </c>
+      <c r="B104">
+        <v>8.5545475400941609</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2.1</v>
+      </c>
+      <c r="B105">
+        <v>8.0931111071554298</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2.12</v>
+      </c>
+      <c r="B106">
+        <v>7.49680494482417</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2.14</v>
+      </c>
+      <c r="B107">
+        <v>6.7944461961172697</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2.16</v>
+      </c>
+      <c r="B108">
+        <v>6.3692868416728796</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="B109">
+        <v>6.0515320087164</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B110">
+        <v>5.7924212531653696</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="B111">
+        <v>5.55273527387775</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="B112">
+        <v>5.1142627280976098</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="B113">
+        <v>4.8061542411793203</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="B114">
+        <v>4.4997839251264304</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B115">
+        <v>4.0559324661875698</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="B116">
+        <v>3.7522360127431602</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2.34</v>
+      </c>
+      <c r="B117">
+        <v>3.3742627995723899</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2.36</v>
+      </c>
+      <c r="B118">
+        <v>2.8522918281755301</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2.38</v>
+      </c>
+      <c r="B119">
+        <v>2.3108853811237098</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2.4</v>
+      </c>
+      <c r="B120">
+        <v>1.79561504619226</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2.42</v>
+      </c>
+      <c r="B121">
+        <v>1.43109854272786</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2.44</v>
+      </c>
+      <c r="B122">
+        <v>1.0420807165646899</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2.46</v>
+      </c>
+      <c r="B123">
+        <v>0.74169190438891497</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2.48</v>
+      </c>
+      <c r="B124">
+        <v>0.49453590766341898</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>